--- a/files/IF_function_II.xlsx
+++ b/files/IF_function_II.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IF function example #1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1797,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>2</v>
@@ -1882,8 +1882,8 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>11</v>
+      <c r="R3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,8 +1916,8 @@
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="R4">
-        <v>15</v>
+      <c r="R4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1948,8 +1948,8 @@
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5">
-        <v>5</v>
+      <c r="R5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1980,8 +1980,8 @@
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6">
-        <v>14</v>
+      <c r="R6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2012,8 +2012,8 @@
       <c r="Q7">
         <v>5</v>
       </c>
-      <c r="R7">
-        <v>4</v>
+      <c r="R7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2044,8 +2044,8 @@
       <c r="Q8">
         <v>6</v>
       </c>
-      <c r="R8">
-        <v>6</v>
+      <c r="R8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2076,8 +2076,8 @@
       <c r="Q9">
         <v>7</v>
       </c>
-      <c r="R9">
-        <v>10</v>
+      <c r="R9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2108,8 +2108,8 @@
       <c r="Q10">
         <v>8</v>
       </c>
-      <c r="R10">
-        <v>5</v>
+      <c r="R10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2140,8 +2140,8 @@
       <c r="Q11">
         <v>9</v>
       </c>
-      <c r="R11">
-        <v>5</v>
+      <c r="R11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2172,8 +2172,8 @@
       <c r="Q12">
         <v>10</v>
       </c>
-      <c r="R12">
-        <v>5</v>
+      <c r="R12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2204,8 +2204,8 @@
       <c r="Q13">
         <v>11</v>
       </c>
-      <c r="R13">
-        <v>5</v>
+      <c r="R13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2236,8 +2236,8 @@
       <c r="Q14">
         <v>12</v>
       </c>
-      <c r="R14">
-        <v>13</v>
+      <c r="R14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2268,8 +2268,8 @@
       <c r="Q15">
         <v>13</v>
       </c>
-      <c r="R15">
-        <v>9</v>
+      <c r="R15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2300,8 +2300,8 @@
       <c r="Q16">
         <v>14</v>
       </c>
-      <c r="R16">
-        <v>13</v>
+      <c r="R16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2322,8 +2322,8 @@
       <c r="Q17">
         <v>15</v>
       </c>
-      <c r="R17">
-        <v>4</v>
+      <c r="R17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,8 +2356,8 @@
       <c r="Q18">
         <v>16</v>
       </c>
-      <c r="R18">
-        <v>11</v>
+      <c r="R18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2388,8 +2388,8 @@
       <c r="Q19">
         <v>17</v>
       </c>
-      <c r="R19">
-        <v>10</v>
+      <c r="R19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2420,8 +2420,8 @@
       <c r="Q20">
         <v>18</v>
       </c>
-      <c r="R20">
-        <v>12</v>
+      <c r="R20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2452,8 +2452,8 @@
       <c r="Q21">
         <v>19</v>
       </c>
-      <c r="R21">
-        <v>4</v>
+      <c r="R21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2484,8 +2484,8 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22">
-        <v>6</v>
+      <c r="R22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2516,8 +2516,8 @@
       <c r="Q23">
         <v>21</v>
       </c>
-      <c r="R23">
-        <v>8</v>
+      <c r="R23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2548,8 +2548,8 @@
       <c r="Q24">
         <v>22</v>
       </c>
-      <c r="R24">
-        <v>6</v>
+      <c r="R24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2580,8 +2580,8 @@
       <c r="Q25">
         <v>23</v>
       </c>
-      <c r="R25">
-        <v>6</v>
+      <c r="R25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2612,8 +2612,8 @@
       <c r="Q26">
         <v>24</v>
       </c>
-      <c r="R26">
-        <v>11</v>
+      <c r="R26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2644,8 +2644,8 @@
       <c r="Q27" s="6">
         <v>25</v>
       </c>
-      <c r="R27" s="6">
-        <v>15</v>
+      <c r="R27" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
@@ -2689,7 +2689,9 @@
       <c r="Q29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="4"/>
+      <c r="R29" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="S29" s="3" t="s">
         <v>56</v>
       </c>
@@ -2779,7 +2781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
